--- a/Recommend_Card/no_card_first_recommend/reg_card_feature_for_reccommend_1st.xlsx
+++ b/Recommend_Card/no_card_first_recommend/reg_card_feature_for_reccommend_1st.xlsx
@@ -104,877 +104,878 @@
     <t>中國信託-TAIPEI 101 夜光聯名卡</t>
   </si>
   <si>
+    <t>中國信託-大中華攜手飛聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-大葉高島屋百貨聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-中油VIP聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-中信兄弟聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-中信商旅鈦金卡</t>
+  </si>
+  <si>
+    <t>中國信託-中國信託寰遊美國運通卡AMEX_金卡</t>
+  </si>
+  <si>
+    <t>中國信託-中華電信聯名白金卡</t>
+  </si>
+  <si>
+    <t>中國信託-秀泰聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-享想生活卡</t>
+  </si>
+  <si>
+    <t>中國信託-南紡購物中心聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-紅利御璽卡</t>
+  </si>
+  <si>
+    <t>中國信託-現金回饋鈦金卡</t>
+  </si>
+  <si>
+    <t>中國信託-勤美天地聯名晶緻卡</t>
+  </si>
+  <si>
+    <t>中國信託-鼎極卡</t>
+  </si>
+  <si>
+    <t>中國信託-漢神百貨聯名卡</t>
+  </si>
+  <si>
+    <t>中國信託-酷玩卡</t>
+  </si>
+  <si>
+    <t>中國信託-寰遊美國運通卡</t>
+  </si>
+  <si>
+    <t>中國信託-雙幣商務卡</t>
+  </si>
+  <si>
+    <t>中國信託-蘭城新月廣場聯名卡</t>
+  </si>
+  <si>
+    <t>元大銀行-iCash樂享晶緻卡</t>
+  </si>
+  <si>
+    <t>元大銀行-iPASS現賺御璽卡</t>
+  </si>
+  <si>
+    <t>元大銀行-Life卡</t>
+  </si>
+  <si>
+    <t>元大銀行-Wi-Ho!Online聯名卡</t>
+  </si>
+  <si>
+    <t>元大銀行-一番卡</t>
+  </si>
+  <si>
+    <t>元大銀行-元大Life卡JCB晶緻卡</t>
+  </si>
+  <si>
+    <t>元大銀行-分享卡</t>
+  </si>
+  <si>
+    <t>元大銀行-世界卡</t>
+  </si>
+  <si>
+    <t>元大銀行-指定卡</t>
+  </si>
+  <si>
+    <t>元大銀行-富貴無限卡</t>
+  </si>
+  <si>
+    <t>元大銀行-愛PASS鈦金卡</t>
+  </si>
+  <si>
+    <t>元大銀行-新世代卡</t>
+  </si>
+  <si>
+    <t>元大銀行-樂遊卡</t>
+  </si>
+  <si>
+    <t>元大銀行-藝術白金卡</t>
+  </si>
+  <si>
+    <t>元大銀行-鑽金 icash 聯名卡</t>
+  </si>
+  <si>
+    <t>元大銀行-鑽金一卡通聯名卡</t>
+  </si>
+  <si>
+    <t>元大銀行-鑽金卡</t>
+  </si>
+  <si>
+    <t>日盛銀行-ALL PASS卡</t>
+  </si>
+  <si>
+    <t>日盛銀行-GOGO卡</t>
+  </si>
+  <si>
+    <t>日盛銀行-無限卡</t>
+  </si>
+  <si>
+    <t>王道銀行-cama café聯名卡</t>
+  </si>
+  <si>
+    <t>王道銀行-FunNow聯名卡</t>
+  </si>
+  <si>
+    <t>王道銀行-公益認同卡</t>
+  </si>
+  <si>
+    <t>王道銀行-簽帳金融卡</t>
+  </si>
+  <si>
+    <t>台中商銀-JCB哆啦A夢晶緻卡</t>
+  </si>
+  <si>
+    <t>台中商銀-媽祖白金卡</t>
+  </si>
+  <si>
+    <t>台北富邦-DHC聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-IMPERIAL尊御世界卡</t>
+  </si>
+  <si>
+    <t>台北富邦-J卡</t>
+  </si>
+  <si>
+    <t>台北富邦-台茂聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-台灣大哥大悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-采盟聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-財神卡</t>
+  </si>
+  <si>
+    <t>台北富邦-商務卡</t>
+  </si>
+  <si>
+    <t>台北富邦-國賓大飯店聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-富利生活系列卡</t>
+  </si>
+  <si>
+    <t>台北富邦-富邦悍將悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-福華聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-廣三SOGO聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-數位生活卡</t>
+  </si>
+  <si>
+    <t>台北富邦-麗嬰房聯名卡</t>
+  </si>
+  <si>
+    <t>台北富邦-鑽保卡</t>
+  </si>
+  <si>
+    <t>台新銀行-@GoGo iCash御璽卡</t>
+  </si>
+  <si>
+    <t>台新銀行-ETC聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-FlyGo卡</t>
+  </si>
+  <si>
+    <t>台新銀行-PayEasy聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-三商美邦人壽聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-大潤發/大買家聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-太陽卡</t>
+  </si>
+  <si>
+    <t>台新銀行-台新財富無限卡</t>
+  </si>
+  <si>
+    <t>台新銀行-台新街口聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-全家Fish悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-亞洲無限卡</t>
+  </si>
+  <si>
+    <t>台新銀行-幸福加值卡</t>
+  </si>
+  <si>
+    <t>台新銀行-昇恆昌聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-玫瑰卡</t>
+  </si>
+  <si>
+    <t>台新銀行-商務卡</t>
+  </si>
+  <si>
+    <t>台新銀行-國泰航空世界卡</t>
+  </si>
+  <si>
+    <t>台新銀行-國泰航空鈦金卡</t>
+  </si>
+  <si>
+    <t>台新銀行-國泰航空翱翔鈦金卡</t>
+  </si>
+  <si>
+    <t>台新銀行-賓士smart聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-遠傳friDay聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-燦坤生活聯名卡</t>
+  </si>
+  <si>
+    <t>台新銀行-環球無限卡</t>
+  </si>
+  <si>
+    <t>台新銀行-雙幣卡</t>
+  </si>
+  <si>
+    <t>台灣樂天-樂天信用卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-DAWHO現金回饋信用卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-Me Card</t>
+  </si>
+  <si>
+    <t>永豐銀行-MITSUI OUTLET PARK卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-Prestige美國運通卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-SPORT卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-VOGUE聯名卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-保倍卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-科士威聯名卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-美麗華卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-悠遊HiCard</t>
+  </si>
+  <si>
+    <t>永豐銀行-現金回饋卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-無限卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-鈦豐卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-夢行卡</t>
+  </si>
+  <si>
+    <t>永豐銀行-雙幣卡</t>
+  </si>
+  <si>
+    <t>玉山全卡-Debit金融卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-ATT 4 Fun 悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-eTag悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-iCash聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-NISSAN悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-Pi 拍錢包信用卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-U Bear信用卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-山隆優油卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-中友百貨悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-公務人員國民旅遊卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-弘安藥粧聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-玉山Only卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-玉山世界卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-全國電子聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-佐登妮絲聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-幸運PLUS鈦金卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-幸運鈦金卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-南山悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-耐斯廣場NP聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-家樂福icash聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-家樂福悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-啄木鳥悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-商務御璽卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-統一時代icash聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-統領百貨悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-華歌爾悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-賀寶芙悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-愛心卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-新東陽悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-漢神巨蛋聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-臺北南山廣場聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-雙幣信用卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-麗寶悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>玉山銀行-寶雅悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-e秒刷鈦金卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-Gogoro 聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-Mega One 一卡通聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-中興保全聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-世界卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-生活工場聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-利多御璽商旅卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-幸福卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-原子小金剛卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-統一7-ELEVEn獅聯名卡</t>
+  </si>
+  <si>
+    <t>兆豐銀行-歐付寶悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>合作金庫-icash聯名卡MasterCard鈦金卡</t>
+  </si>
+  <si>
+    <t>合作金庫-JCB悠遊晶緻卡</t>
+  </si>
+  <si>
+    <t>合作金庫-卡娜赫拉的小動物 icash 聯名卡</t>
+  </si>
+  <si>
+    <t>合作金庫-合作金庫世界卡</t>
+  </si>
+  <si>
+    <t>合作金庫-合庫無限卡</t>
+  </si>
+  <si>
+    <t>合作金庫-利high卡</t>
+  </si>
+  <si>
+    <t>合作金庫-漢來美食聯名卡</t>
+  </si>
+  <si>
+    <t>合作金庫-雙幣卡</t>
+  </si>
+  <si>
+    <t>合庫鹿港-天后宮認同卡</t>
+  </si>
+  <si>
+    <t>安泰銀行-分期卡</t>
+  </si>
+  <si>
+    <t>安泰銀行-晶緻卡</t>
+  </si>
+  <si>
+    <t>安泰銀行-鈦金卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-Apple Pay</t>
+  </si>
+  <si>
+    <t>花旗銀行-Citi Prestige</t>
+  </si>
+  <si>
+    <t>花旗銀行-PChome Prime聯名卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-紅利悠遊卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-現金回饋PLUS卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-新世代花旗饗樂生活悠遊卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-寰旅世界悠遊卡</t>
+  </si>
+  <si>
+    <t>花旗銀行-寰旅尊尚世界悠遊卡</t>
+  </si>
+  <si>
+    <t>星展銀行-everyday鈦金卡</t>
+  </si>
+  <si>
+    <t>星展銀行-炫晶御璽卡</t>
+  </si>
+  <si>
+    <t>星展銀行-飛行世界卡</t>
+  </si>
+  <si>
+    <t>星展銀行-飛行鈦金卡</t>
+  </si>
+  <si>
+    <t>美國運通-長榮航空簽帳白金卡</t>
+  </si>
+  <si>
+    <t>美國運通-長榮航空簽帳金卡</t>
+  </si>
+  <si>
+    <t>美國運通-信用白金卡</t>
+  </si>
+  <si>
+    <t>美國運通-信用金卡</t>
+  </si>
+  <si>
+    <t>美國運通-國泰航空信用卡</t>
+  </si>
+  <si>
+    <t>美國運通-國泰航空尊尚信用卡</t>
+  </si>
+  <si>
+    <t>美國運通-新加坡航空天宇信用卡</t>
+  </si>
+  <si>
+    <t>美國運通-簽帳卡</t>
+  </si>
+  <si>
+    <t>美國運通-簽帳金卡</t>
+  </si>
+  <si>
+    <t>高雄銀行-高雄going鈦金卡</t>
+  </si>
+  <si>
+    <t>國泰世華-COSTCO聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-KOKO COMBO icash聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-世界卡</t>
+  </si>
+  <si>
+    <t>國泰世華-台塑聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-白金卡</t>
+  </si>
+  <si>
+    <t>國泰世華-亞洲萬里通聯名世界卡</t>
+  </si>
+  <si>
+    <t>國泰世華-亞洲萬里通聯名白金卡</t>
+  </si>
+  <si>
+    <t>國泰世華-亞洲萬里通聯名里享卡</t>
+  </si>
+  <si>
+    <t>國泰世華-亞洲萬里通聯名鈦商卡</t>
+  </si>
+  <si>
+    <t>國泰世華-享購鈦金卡</t>
+  </si>
+  <si>
+    <t>國泰世華-長榮聯名御璽卡</t>
+  </si>
+  <si>
+    <t>國泰世華-長榮聯名無限卡</t>
+  </si>
+  <si>
+    <t>國泰世華-長榮聯名極致御璽卡</t>
+  </si>
+  <si>
+    <t>國泰世華-長榮聯名極致無限卡</t>
+  </si>
+  <si>
+    <t>國泰世華-國泰人壽聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-現金回饋御璽卡</t>
+  </si>
+  <si>
+    <t>國泰世華-尊榮御璽卡</t>
+  </si>
+  <si>
+    <t>國泰世華-鈦金商務卡</t>
+  </si>
+  <si>
+    <t>國泰世華-遠東SOGO悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-蝦皮購物聯名卡</t>
+  </si>
+  <si>
+    <t>國泰世華-雙幣卡</t>
+  </si>
+  <si>
+    <t>第一銀行-icash聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-i-Fun愛玩樂卡</t>
+  </si>
+  <si>
+    <t>第一銀行-Living Green綠活卡</t>
+  </si>
+  <si>
+    <t>第一銀行-Smile速邁樂聯名卡VISA白金卡</t>
+  </si>
+  <si>
+    <t>第一銀行-Wonderful星璨卡</t>
+  </si>
+  <si>
+    <t>第一銀行-一卡通聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-大同寶寶聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-由你分期卡</t>
+  </si>
+  <si>
+    <t>第一銀行-悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-曼黛瑪璉聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-速邁樂聯名卡</t>
+  </si>
+  <si>
+    <t>第一銀行-媚儷鈦金卡</t>
+  </si>
+  <si>
+    <t>第一銀行-尊榮白金卡</t>
+  </si>
+  <si>
+    <t>第一銀行-菁英御璽卡</t>
+  </si>
+  <si>
+    <t>第一銀行-資生堂SHISEIDO聯名卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-中壽聯名卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-現金回饋御璽卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-現金回饋鈦金卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-無限卡</t>
+  </si>
+  <si>
+    <t>凱基銀行-魔fun悠遊御璽卡</t>
+  </si>
+  <si>
+    <t>渣打銀行-TheShoppingCard分期卡</t>
+  </si>
+  <si>
+    <t>渣打銀行-昇利卡(紅利回饋)</t>
+  </si>
+  <si>
+    <t>渣打銀行-昇利卡(現金回饋)</t>
+  </si>
+  <si>
+    <t>渣打銀行-現金回饋御璽卡</t>
+  </si>
+  <si>
+    <t>渣打銀行-優先理財VISA無限卡</t>
+  </si>
+  <si>
+    <t>渣打銀行-優先理財無限卡</t>
+  </si>
+  <si>
+    <t>華南銀行-Combo Life 卡</t>
+  </si>
+  <si>
+    <t>華南銀行-i網購生活卡</t>
+  </si>
+  <si>
+    <t>華南銀行-LOVE晶緻悠遊聯名卡－酷愛黑卡</t>
+  </si>
+  <si>
+    <t>華南銀行-LOVE晶緻悠遊聯名卡－寵愛紅卡</t>
+  </si>
+  <si>
+    <t>華南銀行-OPENPOINT超級點數聯名卡-Hello Kitty款</t>
+  </si>
+  <si>
+    <t>華南銀行-Scottish House 聯名卡</t>
+  </si>
+  <si>
+    <t>華南銀行-The ONE 尊榮無限卡</t>
+  </si>
+  <si>
+    <t>華南銀行-大甲媽祖認同卡</t>
+  </si>
+  <si>
+    <t>華南銀行-享利樂活Combo卡</t>
+  </si>
+  <si>
+    <t>華南銀行-美饌紅利卡</t>
+  </si>
+  <si>
+    <t>華南銀行-旅鑽商務御璽卡</t>
+  </si>
+  <si>
+    <t>華南銀行-超級現金回饋卡</t>
+  </si>
+  <si>
+    <t>華南銀行-優活YOHO晶緻卡</t>
+  </si>
+  <si>
+    <t>華南銀行-櫃買贏家生活卡</t>
+  </si>
+  <si>
+    <t>華泰銀行-VISA旗艦卡</t>
+  </si>
+  <si>
+    <t>陽信銀行-一卡通聯名鈦金卡</t>
+  </si>
+  <si>
+    <t>陽信銀行-享利白金卡</t>
+  </si>
+  <si>
+    <t>陽信銀行-曜晶卡</t>
+  </si>
+  <si>
+    <t>新光銀行-Lamigo信用卡</t>
+  </si>
+  <si>
+    <t>新光銀行-分期7卡</t>
+  </si>
+  <si>
+    <t>新光銀行-日本航空聯名卡</t>
+  </si>
+  <si>
+    <t>新光銀行-美麗華百樂卡</t>
+  </si>
+  <si>
+    <t>新光銀行-新光三越聯名卡</t>
+  </si>
+  <si>
+    <t>新光銀行-新光加油卡</t>
+  </si>
+  <si>
+    <t>新光銀行-義大世界聯名卡</t>
+  </si>
+  <si>
+    <t>新光銀行-寰宇現金回饋卡</t>
+  </si>
+  <si>
+    <t>新光銀行-魔法少女一卡通鈦金卡</t>
+  </si>
+  <si>
+    <t>滙豐銀行-中華航空聯名卡</t>
+  </si>
+  <si>
+    <t>滙豐銀行-現金回饋御璽卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-JCB悠遊晶緻卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-My樂現金回饋卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-VISA一卡通御璽卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-VISA無限卡</t>
+  </si>
+  <si>
+    <t>彰化銀行-商旅御璽卡</t>
+  </si>
+  <si>
+    <t>臺灣企銀-北港朝天宮媽祖認同卡</t>
+  </si>
+  <si>
+    <t>臺灣企銀-故宮之友認同卡</t>
+  </si>
+  <si>
+    <t>臺灣企銀-悠遊聯名卡</t>
+  </si>
+  <si>
+    <t>臺灣企銀-鈦金商旅卡</t>
+  </si>
+  <si>
+    <t>臺灣銀行-金采白金卡</t>
+  </si>
+  <si>
+    <t>臺灣銀行-金鑽商旅白金卡</t>
+  </si>
+  <si>
+    <t>臺灣銀行-鈦金商旅卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-Bankee信用卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-C'est Moi我的卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-eTag 聯名卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-New Century MC卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-快樂信用卡</t>
+  </si>
+  <si>
+    <t>遠東商銀-華信航空聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-F1 加油卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-Tiger City悠遊白金卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-大立無限卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-全國加油聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-幸福御守御璽卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-紅利卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-美華泰聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-泰航聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-理財型白金卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-凱撒飯店聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-順發聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-微風聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-農金一卡通聯名卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-樂活悠遊御璽卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-賴點一卡通御璽卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-聯邦旅遊卡</t>
+  </si>
+  <si>
+    <t>聯邦銀行-聯邦銀行世界卡</t>
+  </si>
+  <si>
     <t>中國信託-Yahoo聯名卡</t>
-  </si>
-  <si>
-    <t>中國信託-大中華攜手飛聯名卡</t>
-  </si>
-  <si>
-    <t>中國信託-大葉高島屋百貨聯名卡</t>
-  </si>
-  <si>
-    <t>中國信託-中油VIP聯名卡</t>
-  </si>
-  <si>
-    <t>中國信託-中信兄弟聯名卡</t>
-  </si>
-  <si>
-    <t>中國信託-中信商旅鈦金卡</t>
-  </si>
-  <si>
-    <t>中國信託-中國信託寰遊美國運通卡AMEX_金卡</t>
-  </si>
-  <si>
-    <t>中國信託-中華電信聯名白金卡</t>
-  </si>
-  <si>
-    <t>中國信託-秀泰聯名卡</t>
-  </si>
-  <si>
-    <t>中國信託-享想生活卡</t>
-  </si>
-  <si>
-    <t>中國信託-南紡購物中心聯名卡</t>
-  </si>
-  <si>
-    <t>中國信託-紅利御璽卡</t>
-  </si>
-  <si>
-    <t>中國信託-現金回饋鈦金卡</t>
-  </si>
-  <si>
-    <t>中國信託-勤美天地聯名晶緻卡</t>
-  </si>
-  <si>
-    <t>中國信託-鼎極卡</t>
-  </si>
-  <si>
-    <t>中國信託-漢神百貨聯名卡</t>
-  </si>
-  <si>
-    <t>中國信託-酷玩卡</t>
-  </si>
-  <si>
-    <t>中國信託-寰遊美國運通卡</t>
-  </si>
-  <si>
-    <t>中國信託-雙幣商務卡</t>
-  </si>
-  <si>
-    <t>中國信託-蘭城新月廣場聯名卡</t>
-  </si>
-  <si>
-    <t>元大銀行-iCash樂享晶緻卡</t>
-  </si>
-  <si>
-    <t>元大銀行-iPASS現賺御璽卡</t>
-  </si>
-  <si>
-    <t>元大銀行-Life卡</t>
-  </si>
-  <si>
-    <t>元大銀行-Wi-Ho!Online聯名卡</t>
-  </si>
-  <si>
-    <t>元大銀行-一番卡</t>
-  </si>
-  <si>
-    <t>元大銀行-元大Life卡JCB晶緻卡</t>
-  </si>
-  <si>
-    <t>元大銀行-分享卡</t>
-  </si>
-  <si>
-    <t>元大銀行-世界卡</t>
-  </si>
-  <si>
-    <t>元大銀行-指定卡</t>
-  </si>
-  <si>
-    <t>元大銀行-富貴無限卡</t>
-  </si>
-  <si>
-    <t>元大銀行-愛PASS鈦金卡</t>
-  </si>
-  <si>
-    <t>元大銀行-新世代卡</t>
-  </si>
-  <si>
-    <t>元大銀行-樂遊卡</t>
-  </si>
-  <si>
-    <t>元大銀行-藝術白金卡</t>
-  </si>
-  <si>
-    <t>元大銀行-鑽金 icash 聯名卡</t>
-  </si>
-  <si>
-    <t>元大銀行-鑽金一卡通聯名卡</t>
-  </si>
-  <si>
-    <t>元大銀行-鑽金卡</t>
-  </si>
-  <si>
-    <t>日盛銀行-ALL PASS卡</t>
-  </si>
-  <si>
-    <t>日盛銀行-GOGO卡</t>
-  </si>
-  <si>
-    <t>日盛銀行-無限卡</t>
-  </si>
-  <si>
-    <t>王道銀行-cama café聯名卡</t>
-  </si>
-  <si>
-    <t>王道銀行-FunNow聯名卡</t>
-  </si>
-  <si>
-    <t>王道銀行-公益認同卡</t>
-  </si>
-  <si>
-    <t>王道銀行-簽帳金融卡</t>
-  </si>
-  <si>
-    <t>台中商銀-JCB哆啦A夢晶緻卡</t>
-  </si>
-  <si>
-    <t>台中商銀-媽祖白金卡</t>
-  </si>
-  <si>
-    <t>台北富邦-DHC聯名卡</t>
-  </si>
-  <si>
-    <t>台北富邦-IMPERIAL尊御世界卡</t>
-  </si>
-  <si>
-    <t>台北富邦-J卡</t>
-  </si>
-  <si>
-    <t>台北富邦-台茂聯名卡</t>
-  </si>
-  <si>
-    <t>台北富邦-台灣大哥大悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>台北富邦-采盟聯名卡</t>
-  </si>
-  <si>
-    <t>台北富邦-財神卡</t>
-  </si>
-  <si>
-    <t>台北富邦-商務卡</t>
-  </si>
-  <si>
-    <t>台北富邦-國賓大飯店聯名卡</t>
-  </si>
-  <si>
-    <t>台北富邦-富利生活系列卡</t>
-  </si>
-  <si>
-    <t>台北富邦-富邦悍將悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>台北富邦-福華聯名卡</t>
-  </si>
-  <si>
-    <t>台北富邦-廣三SOGO聯名卡</t>
-  </si>
-  <si>
-    <t>台北富邦-數位生活卡</t>
-  </si>
-  <si>
-    <t>台北富邦-麗嬰房聯名卡</t>
-  </si>
-  <si>
-    <t>台北富邦-鑽保卡</t>
-  </si>
-  <si>
-    <t>台新銀行-@GoGo iCash御璽卡</t>
-  </si>
-  <si>
-    <t>台新銀行-ETC聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-FlyGo卡</t>
-  </si>
-  <si>
-    <t>台新銀行-PayEasy聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-三商美邦人壽聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-大潤發/大買家聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-太陽卡</t>
-  </si>
-  <si>
-    <t>台新銀行-台新財富無限卡</t>
-  </si>
-  <si>
-    <t>台新銀行-台新街口聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-全家Fish悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-亞洲無限卡</t>
-  </si>
-  <si>
-    <t>台新銀行-幸福加值卡</t>
-  </si>
-  <si>
-    <t>台新銀行-昇恆昌聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-玫瑰卡</t>
-  </si>
-  <si>
-    <t>台新銀行-商務卡</t>
-  </si>
-  <si>
-    <t>台新銀行-國泰航空世界卡</t>
-  </si>
-  <si>
-    <t>台新銀行-國泰航空鈦金卡</t>
-  </si>
-  <si>
-    <t>台新銀行-國泰航空翱翔鈦金卡</t>
-  </si>
-  <si>
-    <t>台新銀行-賓士smart聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-遠傳friDay聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-燦坤生活聯名卡</t>
-  </si>
-  <si>
-    <t>台新銀行-環球無限卡</t>
-  </si>
-  <si>
-    <t>台新銀行-雙幣卡</t>
-  </si>
-  <si>
-    <t>台灣樂天-樂天信用卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-DAWHO現金回饋信用卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-Me Card</t>
-  </si>
-  <si>
-    <t>永豐銀行-MITSUI OUTLET PARK卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-Prestige美國運通卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-SPORT卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-VOGUE聯名卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-保倍卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-科士威聯名卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-美麗華卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-悠遊HiCard</t>
-  </si>
-  <si>
-    <t>永豐銀行-現金回饋卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-無限卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-鈦豐卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-夢行卡</t>
-  </si>
-  <si>
-    <t>永豐銀行-雙幣卡</t>
-  </si>
-  <si>
-    <t>玉山全卡-Debit金融卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-ATT 4 Fun 悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-eTag悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-iCash聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-NISSAN悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-Pi 拍錢包信用卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-U Bear信用卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-山隆優油卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-中友百貨悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-公務人員國民旅遊卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-弘安藥粧聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-玉山Only卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-玉山世界卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-全國電子聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-佐登妮絲聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-幸運PLUS鈦金卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-幸運鈦金卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-南山悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-耐斯廣場NP聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-家樂福icash聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-家樂福悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-啄木鳥悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-商務御璽卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-統一時代icash聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-統領百貨悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-華歌爾悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-賀寶芙悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-愛心卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-新東陽悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-漢神巨蛋聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-臺北南山廣場聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-雙幣信用卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-麗寶悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>玉山銀行-寶雅悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-e秒刷鈦金卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-Gogoro 聯名卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-Mega One 一卡通聯名卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-中興保全聯名卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-世界卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-生活工場聯名卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-利多御璽商旅卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-幸福卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-原子小金剛卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-統一7-ELEVEn獅聯名卡</t>
-  </si>
-  <si>
-    <t>兆豐銀行-歐付寶悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>合作金庫-icash聯名卡MasterCard鈦金卡</t>
-  </si>
-  <si>
-    <t>合作金庫-JCB悠遊晶緻卡</t>
-  </si>
-  <si>
-    <t>合作金庫-卡娜赫拉的小動物 icash 聯名卡</t>
-  </si>
-  <si>
-    <t>合作金庫-合作金庫世界卡</t>
-  </si>
-  <si>
-    <t>合作金庫-合庫無限卡</t>
-  </si>
-  <si>
-    <t>合作金庫-利high卡</t>
-  </si>
-  <si>
-    <t>合作金庫-漢來美食聯名卡</t>
-  </si>
-  <si>
-    <t>合作金庫-雙幣卡</t>
-  </si>
-  <si>
-    <t>合庫鹿港-天后宮認同卡</t>
-  </si>
-  <si>
-    <t>安泰銀行-分期卡</t>
-  </si>
-  <si>
-    <t>安泰銀行-晶緻卡</t>
-  </si>
-  <si>
-    <t>安泰銀行-鈦金卡</t>
-  </si>
-  <si>
-    <t>花旗銀行-Apple Pay</t>
-  </si>
-  <si>
-    <t>花旗銀行-Citi Prestige</t>
-  </si>
-  <si>
-    <t>花旗銀行-PChome Prime聯名卡</t>
-  </si>
-  <si>
-    <t>花旗銀行-紅利悠遊卡</t>
-  </si>
-  <si>
-    <t>花旗銀行-現金回饋PLUS卡</t>
-  </si>
-  <si>
-    <t>花旗銀行-新世代花旗饗樂生活悠遊卡</t>
-  </si>
-  <si>
-    <t>花旗銀行-寰旅世界悠遊卡</t>
-  </si>
-  <si>
-    <t>花旗銀行-寰旅尊尚世界悠遊卡</t>
-  </si>
-  <si>
-    <t>星展銀行-everyday鈦金卡</t>
-  </si>
-  <si>
-    <t>星展銀行-炫晶御璽卡</t>
-  </si>
-  <si>
-    <t>星展銀行-飛行世界卡</t>
-  </si>
-  <si>
-    <t>星展銀行-飛行鈦金卡</t>
-  </si>
-  <si>
-    <t>美國運通-長榮航空簽帳白金卡</t>
-  </si>
-  <si>
-    <t>美國運通-長榮航空簽帳金卡</t>
-  </si>
-  <si>
-    <t>美國運通-信用白金卡</t>
-  </si>
-  <si>
-    <t>美國運通-信用金卡</t>
-  </si>
-  <si>
-    <t>美國運通-國泰航空信用卡</t>
-  </si>
-  <si>
-    <t>美國運通-國泰航空尊尚信用卡</t>
-  </si>
-  <si>
-    <t>美國運通-新加坡航空天宇信用卡</t>
-  </si>
-  <si>
-    <t>美國運通-簽帳卡</t>
-  </si>
-  <si>
-    <t>美國運通-簽帳金卡</t>
-  </si>
-  <si>
-    <t>高雄銀行-高雄going鈦金卡</t>
-  </si>
-  <si>
-    <t>國泰世華-COSTCO聯名卡</t>
-  </si>
-  <si>
-    <t>國泰世華-KOKO COMBO icash聯名卡</t>
-  </si>
-  <si>
-    <t>國泰世華-世界卡</t>
-  </si>
-  <si>
-    <t>國泰世華-台塑聯名卡</t>
-  </si>
-  <si>
-    <t>國泰世華-白金卡</t>
-  </si>
-  <si>
-    <t>國泰世華-亞洲萬里通聯名世界卡</t>
-  </si>
-  <si>
-    <t>國泰世華-亞洲萬里通聯名白金卡</t>
-  </si>
-  <si>
-    <t>國泰世華-亞洲萬里通聯名里享卡</t>
-  </si>
-  <si>
-    <t>國泰世華-亞洲萬里通聯名鈦商卡</t>
-  </si>
-  <si>
-    <t>國泰世華-享購鈦金卡</t>
-  </si>
-  <si>
-    <t>國泰世華-長榮聯名御璽卡</t>
-  </si>
-  <si>
-    <t>國泰世華-長榮聯名無限卡</t>
-  </si>
-  <si>
-    <t>國泰世華-長榮聯名極致御璽卡</t>
-  </si>
-  <si>
-    <t>國泰世華-長榮聯名極致無限卡</t>
-  </si>
-  <si>
-    <t>國泰世華-國泰人壽聯名卡</t>
-  </si>
-  <si>
-    <t>國泰世華-現金回饋御璽卡</t>
-  </si>
-  <si>
-    <t>國泰世華-尊榮御璽卡</t>
-  </si>
-  <si>
-    <t>國泰世華-鈦金商務卡</t>
-  </si>
-  <si>
-    <t>國泰世華-遠東SOGO悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>國泰世華-蝦皮購物聯名卡</t>
-  </si>
-  <si>
-    <t>國泰世華-雙幣卡</t>
-  </si>
-  <si>
-    <t>第一銀行-icash聯名卡</t>
-  </si>
-  <si>
-    <t>第一銀行-i-Fun愛玩樂卡</t>
-  </si>
-  <si>
-    <t>第一銀行-Living Green綠活卡</t>
-  </si>
-  <si>
-    <t>第一銀行-Smile速邁樂聯名卡VISA白金卡</t>
-  </si>
-  <si>
-    <t>第一銀行-Wonderful星璨卡</t>
-  </si>
-  <si>
-    <t>第一銀行-一卡通聯名卡</t>
-  </si>
-  <si>
-    <t>第一銀行-大同寶寶聯名卡</t>
-  </si>
-  <si>
-    <t>第一銀行-由你分期卡</t>
-  </si>
-  <si>
-    <t>第一銀行-悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>第一銀行-曼黛瑪璉聯名卡</t>
-  </si>
-  <si>
-    <t>第一銀行-速邁樂聯名卡</t>
-  </si>
-  <si>
-    <t>第一銀行-媚儷鈦金卡</t>
-  </si>
-  <si>
-    <t>第一銀行-尊榮白金卡</t>
-  </si>
-  <si>
-    <t>第一銀行-菁英御璽卡</t>
-  </si>
-  <si>
-    <t>第一銀行-資生堂SHISEIDO聯名卡</t>
-  </si>
-  <si>
-    <t>凱基銀行-中壽聯名卡</t>
-  </si>
-  <si>
-    <t>凱基銀行-現金回饋御璽卡</t>
-  </si>
-  <si>
-    <t>凱基銀行-現金回饋鈦金卡</t>
-  </si>
-  <si>
-    <t>凱基銀行-無限卡</t>
-  </si>
-  <si>
-    <t>凱基銀行-魔fun悠遊御璽卡</t>
-  </si>
-  <si>
-    <t>渣打銀行-TheShoppingCard分期卡</t>
-  </si>
-  <si>
-    <t>渣打銀行-昇利卡(紅利回饋)</t>
-  </si>
-  <si>
-    <t>渣打銀行-昇利卡(現金回饋)</t>
-  </si>
-  <si>
-    <t>渣打銀行-現金回饋御璽卡</t>
-  </si>
-  <si>
-    <t>渣打銀行-優先理財VISA無限卡</t>
-  </si>
-  <si>
-    <t>渣打銀行-優先理財無限卡</t>
-  </si>
-  <si>
-    <t>華南銀行-Combo Life 卡</t>
-  </si>
-  <si>
-    <t>華南銀行-i網購生活卡</t>
-  </si>
-  <si>
-    <t>華南銀行-LOVE晶緻悠遊聯名卡－酷愛黑卡</t>
-  </si>
-  <si>
-    <t>華南銀行-LOVE晶緻悠遊聯名卡－寵愛紅卡</t>
-  </si>
-  <si>
-    <t>華南銀行-OPENPOINT超級點數聯名卡-Hello Kitty款</t>
-  </si>
-  <si>
-    <t>華南銀行-Scottish House 聯名卡</t>
-  </si>
-  <si>
-    <t>華南銀行-The ONE 尊榮無限卡</t>
-  </si>
-  <si>
-    <t>華南銀行-大甲媽祖認同卡</t>
-  </si>
-  <si>
-    <t>華南銀行-享利樂活Combo卡</t>
-  </si>
-  <si>
-    <t>華南銀行-美饌紅利卡</t>
-  </si>
-  <si>
-    <t>華南銀行-旅鑽商務御璽卡</t>
-  </si>
-  <si>
-    <t>華南銀行-超級現金回饋卡</t>
-  </si>
-  <si>
-    <t>華南銀行-優活YOHO晶緻卡</t>
-  </si>
-  <si>
-    <t>華南銀行-櫃買贏家生活卡</t>
-  </si>
-  <si>
-    <t>華泰銀行-VISA旗艦卡</t>
-  </si>
-  <si>
-    <t>陽信銀行-一卡通聯名鈦金卡</t>
-  </si>
-  <si>
-    <t>陽信銀行-享利白金卡</t>
-  </si>
-  <si>
-    <t>陽信銀行-曜晶卡</t>
-  </si>
-  <si>
-    <t>新光銀行-Lamigo信用卡</t>
-  </si>
-  <si>
-    <t>新光銀行-分期7卡</t>
-  </si>
-  <si>
-    <t>新光銀行-日本航空聯名卡</t>
-  </si>
-  <si>
-    <t>新光銀行-美麗華百樂卡</t>
-  </si>
-  <si>
-    <t>新光銀行-新光三越聯名卡</t>
-  </si>
-  <si>
-    <t>新光銀行-新光加油卡</t>
-  </si>
-  <si>
-    <t>新光銀行-義大世界聯名卡</t>
-  </si>
-  <si>
-    <t>新光銀行-寰宇現金回饋卡</t>
-  </si>
-  <si>
-    <t>新光銀行-魔法少女一卡通鈦金卡</t>
-  </si>
-  <si>
-    <t>滙豐銀行-中華航空聯名卡</t>
-  </si>
-  <si>
-    <t>滙豐銀行-現金回饋御璽卡</t>
-  </si>
-  <si>
-    <t>彰化銀行-JCB悠遊晶緻卡</t>
-  </si>
-  <si>
-    <t>彰化銀行-My樂現金回饋卡</t>
-  </si>
-  <si>
-    <t>彰化銀行-VISA一卡通御璽卡</t>
-  </si>
-  <si>
-    <t>彰化銀行-VISA無限卡</t>
-  </si>
-  <si>
-    <t>彰化銀行-商旅御璽卡</t>
-  </si>
-  <si>
-    <t>臺灣企銀-北港朝天宮媽祖認同卡</t>
-  </si>
-  <si>
-    <t>臺灣企銀-故宮之友認同卡</t>
-  </si>
-  <si>
-    <t>臺灣企銀-悠遊聯名卡</t>
-  </si>
-  <si>
-    <t>臺灣企銀-鈦金商旅卡</t>
-  </si>
-  <si>
-    <t>臺灣銀行-金采白金卡</t>
-  </si>
-  <si>
-    <t>臺灣銀行-金鑽商旅白金卡</t>
-  </si>
-  <si>
-    <t>臺灣銀行-鈦金商旅卡</t>
-  </si>
-  <si>
-    <t>遠東商銀-Bankee信用卡</t>
-  </si>
-  <si>
-    <t>遠東商銀-C'est Moi我的卡</t>
-  </si>
-  <si>
-    <t>遠東商銀-eTag 聯名卡</t>
-  </si>
-  <si>
-    <t>遠東商銀-New Century MC卡</t>
-  </si>
-  <si>
-    <t>遠東商銀-快樂信用卡</t>
-  </si>
-  <si>
-    <t>遠東商銀-華信航空聯名卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-F1 加油卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-Tiger City悠遊白金卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-大立無限卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-全國加油聯名卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-幸福御守御璽卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-紅利卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-美華泰聯名卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-泰航聯名卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-理財型白金卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-凱撒飯店聯名卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-順發聯名卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-微風聯名卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-農金一卡通聯名卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-樂活悠遊御璽卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-賴點一卡通御璽卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-聯邦旅遊卡</t>
-  </si>
-  <si>
-    <t>聯邦銀行-聯邦銀行世界卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1306,11 +1307,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L307"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1919,7 +1923,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="B17">
         <v>0.12343096234309624</v>
@@ -1957,7 +1961,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0.14655172413793102</v>
@@ -1995,7 +1999,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0.33333333333333331</v>
@@ -2033,7 +2037,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2071,7 +2075,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>0.18292682926829268</v>
@@ -2109,7 +2113,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>9.5070422535211266E-2</v>
@@ -2147,7 +2151,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2185,7 +2189,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2223,7 +2227,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>0.12307692307692308</v>
@@ -2261,7 +2265,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>4.8387096774193547E-2</v>
@@ -2299,7 +2303,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0.11607142857142858</v>
@@ -2337,7 +2341,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>8.5106382978723402E-2</v>
@@ -2375,7 +2379,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0.12060301507537688</v>
@@ -2413,7 +2417,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>0.33333333333333331</v>
@@ -2451,7 +2455,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>7.7707006369426748E-2</v>
@@ -2489,7 +2493,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>8.5714285714285715E-2</v>
@@ -2527,7 +2531,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>0.10270270270270271</v>
@@ -2565,7 +2569,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>8.8888888888888892E-2</v>
@@ -2603,7 +2607,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2641,7 +2645,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2679,7 +2683,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2717,7 +2721,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>9.0909090909090912E-2</v>
@@ -2755,7 +2759,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>0.1388888888888889</v>
@@ -2793,7 +2797,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2831,7 +2835,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2869,7 +2873,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2907,7 +2911,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>0.12643678160919541</v>
@@ -2945,7 +2949,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2983,7 +2987,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0.17358171041490261</v>
@@ -3021,7 +3025,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>0.3</v>
@@ -3059,7 +3063,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3097,7 +3101,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3135,7 +3139,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>0.14285714285714285</v>
@@ -3173,7 +3177,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3211,7 +3215,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3249,7 +3253,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0.10755813953488372</v>
@@ -3287,7 +3291,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>6.9665865909587246E-2</v>
@@ -3325,7 +3329,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3363,7 +3367,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3401,7 +3405,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>5.8823529411764705E-2</v>
@@ -3439,7 +3443,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3477,7 +3481,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>0.2</v>
@@ -3515,7 +3519,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>0.12131715771230503</v>
@@ -3553,7 +3557,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>0.12550120288692862</v>
@@ -3591,7 +3595,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>0.14918032786885246</v>
@@ -3629,7 +3633,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>0.2</v>
@@ -3705,7 +3709,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>0.25</v>
@@ -3743,7 +3747,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65">
         <v>0.14551971326164875</v>
@@ -3781,7 +3785,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66">
         <v>0.13274336283185842</v>
@@ -3819,7 +3823,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>0.11494252873563218</v>
@@ -3857,7 +3861,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68">
         <v>0.11764705882352941</v>
@@ -3895,7 +3899,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69">
         <v>0.15151515151515152</v>
@@ -3933,7 +3937,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3971,7 +3975,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4009,7 +4013,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72">
         <v>0.13861386138613863</v>
@@ -4047,7 +4051,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73">
         <v>0.12903225806451613</v>
@@ -4085,7 +4089,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4123,7 +4127,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75">
         <v>0.12454212454212454</v>
@@ -4161,7 +4165,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76">
         <v>7.5706214689265541E-2</v>
@@ -4199,7 +4203,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4237,7 +4241,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78">
         <v>0.11822660098522167</v>
@@ -4275,7 +4279,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79">
         <v>9.6054628224582703E-2</v>
@@ -4313,7 +4317,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80">
         <v>0.12663755458515283</v>
@@ -4351,7 +4355,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81">
         <v>0.10338423442014032</v>
@@ -4389,7 +4393,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4427,7 +4431,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83">
         <v>0.14814814814814814</v>
@@ -4465,7 +4469,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -4503,7 +4507,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85">
         <v>0.12934879571810884</v>
@@ -4541,7 +4545,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86">
         <v>7.1428571428571425E-2</v>
@@ -4579,7 +4583,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87">
         <v>0.12149532710280374</v>
@@ -4617,7 +4621,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88">
         <v>9.2592592592592587E-2</v>
@@ -4655,7 +4659,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89">
         <v>9.5238095238095233E-2</v>
@@ -4693,7 +4697,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4731,7 +4735,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91">
         <v>0.12598425196850394</v>
@@ -4769,7 +4773,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92">
         <v>0.12642802741812642</v>
@@ -4807,7 +4811,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93">
         <v>0.14472608340147178</v>
@@ -4845,7 +4849,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94">
         <v>0.18090452261306533</v>
@@ -4883,7 +4887,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95">
         <v>9.6153846153846159E-2</v>
@@ -4921,7 +4925,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0.16030534351145037</v>
@@ -4959,7 +4963,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4997,7 +5001,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98">
         <v>0.14285714285714285</v>
@@ -5035,7 +5039,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99">
         <v>0.14285714285714285</v>
@@ -5073,7 +5077,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5111,7 +5115,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -5149,7 +5153,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0.16444826105624732</v>
@@ -5187,7 +5191,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0.14152168267982343</v>
@@ -5225,7 +5229,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -5263,7 +5267,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5301,7 +5305,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106">
         <v>6.25E-2</v>
@@ -5339,7 +5343,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107">
         <v>0.15240641711229946</v>
@@ -5377,7 +5381,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108">
         <v>0.12422360248447205</v>
@@ -5415,7 +5419,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109">
         <v>0.13136288998357964</v>
@@ -5453,7 +5457,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -5491,7 +5495,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B111">
         <v>0.14814814814814814</v>
@@ -5529,7 +5533,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112">
         <v>0.14285714285714285</v>
@@ -5567,7 +5571,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5605,7 +5609,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114">
         <v>0.13271162123385941</v>
@@ -5643,7 +5647,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115">
         <v>0.13120567375886524</v>
@@ -5681,7 +5685,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B116">
         <v>0.14722222222222223</v>
@@ -5719,7 +5723,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B117">
         <v>0.2</v>
@@ -5757,7 +5761,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B118">
         <v>0.14537444933920704</v>
@@ -5795,7 +5799,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5833,7 +5837,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B120">
         <v>6.0606060606060608E-2</v>
@@ -5871,7 +5875,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B121">
         <v>0.11307420494699646</v>
@@ -5909,7 +5913,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5947,7 +5951,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B123">
         <v>0.10280020181634712</v>
@@ -5985,7 +5989,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B124">
         <v>9.4409477971121813E-2</v>
@@ -6023,7 +6027,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125">
         <v>0.22500000000000001</v>
@@ -6061,7 +6065,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6099,7 +6103,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B127">
         <v>0.17796610169491525</v>
@@ -6137,7 +6141,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6175,7 +6179,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129">
         <v>0.14022988505747128</v>
@@ -6213,7 +6217,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130">
         <v>0.12546125461254612</v>
@@ -6251,7 +6255,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6289,7 +6293,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6327,7 +6331,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133">
         <v>0.14181818181818182</v>
@@ -6365,7 +6369,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134">
         <v>0.15</v>
@@ -6403,7 +6407,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B135">
         <v>0.10588235294117647</v>
@@ -6441,7 +6445,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6479,7 +6483,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B137">
         <v>0.13427561837455831</v>
@@ -6517,7 +6521,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B138">
         <v>0.11510791366906475</v>
@@ -6555,7 +6559,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -6593,7 +6597,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B140">
         <v>0.13532110091743119</v>
@@ -6631,7 +6635,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B141">
         <v>0.16666666666666666</v>
@@ -6669,7 +6673,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -6707,7 +6711,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6745,7 +6749,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B144">
         <v>0.33333333333333331</v>
@@ -6783,7 +6787,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145">
         <v>0.08</v>
@@ -6821,7 +6825,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -6859,7 +6863,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B147">
         <v>0.13253012048192772</v>
@@ -6897,7 +6901,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B148">
         <v>0.1</v>
@@ -6935,7 +6939,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B149">
         <v>0.15</v>
@@ -6973,7 +6977,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B150">
         <v>0.12969283276450511</v>
@@ -7011,7 +7015,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151">
         <v>0.11904761904761904</v>
@@ -7049,7 +7053,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B152">
         <v>0.11417748917748918</v>
@@ -7087,7 +7091,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153">
         <v>0.14021421616358326</v>
@@ -7125,7 +7129,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7163,7 +7167,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7201,7 +7205,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156">
         <v>0.1336290546160244</v>
@@ -7239,7 +7243,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157">
         <v>9.0909090909090912E-2</v>
@@ -7277,7 +7281,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B158">
         <v>0.13195342820181113</v>
@@ -7315,7 +7319,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7353,7 +7357,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B160">
         <v>0.10666666666666667</v>
@@ -7391,7 +7395,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B161">
         <v>0.14663951120162932</v>
@@ -7429,7 +7433,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B162">
         <v>0.11504424778761062</v>
@@ -7467,7 +7471,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -7505,7 +7509,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -7543,7 +7547,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7581,7 +7585,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B166">
         <v>0.13157894736842105</v>
@@ -7619,7 +7623,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -7657,7 +7661,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B168">
         <v>0.12195121951219512</v>
@@ -7695,7 +7699,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B169">
         <v>0.15384615384615385</v>
@@ -7733,7 +7737,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B170">
         <v>0.17647058823529413</v>
@@ -7771,7 +7775,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B171">
         <v>0.25</v>
@@ -7809,7 +7813,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B172">
         <v>9.861325115562404E-2</v>
@@ -7847,7 +7851,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B173">
         <v>0.12910707383069192</v>
@@ -7885,7 +7889,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B174">
         <v>0.13806888068880688</v>
@@ -7923,7 +7927,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -7961,7 +7965,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -7999,7 +8003,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B177">
         <v>0.13004484304932734</v>
@@ -8037,7 +8041,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -8075,7 +8079,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -8113,7 +8117,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B180">
         <v>0.11811300827319134</v>
@@ -8151,7 +8155,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B181">
         <v>0.12025316455696203</v>
@@ -8189,7 +8193,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B182">
         <v>0.16216216216216217</v>
@@ -8227,7 +8231,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B183">
         <v>0.1875</v>
@@ -8265,7 +8269,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B184">
         <v>0.12088505126821371</v>
@@ -8303,7 +8307,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B185">
         <v>0.14266304347826086</v>
@@ -8341,7 +8345,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B186">
         <v>0.16519174041297935</v>
@@ -8379,7 +8383,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B187">
         <v>0.17391304347826086</v>
@@ -8417,7 +8421,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B188">
         <v>0.30434782608695654</v>
@@ -8455,7 +8459,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B189">
         <v>0.19277108433734941</v>
@@ -8493,7 +8497,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B190">
         <v>0.1</v>
@@ -8531,7 +8535,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B191">
         <v>0.2558139534883721</v>
@@ -8569,7 +8573,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -8607,7 +8611,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B193">
         <v>0.22222222222222221</v>
@@ -8645,7 +8649,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B194">
         <v>0.11630321910695743</v>
@@ -8683,7 +8687,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B195">
         <v>0.21818181818181817</v>
@@ -8721,7 +8725,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -8759,7 +8763,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B197">
         <v>0.10730253353204174</v>
@@ -8797,7 +8801,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B198">
         <v>8.1660628610594338E-2</v>
@@ -8835,7 +8839,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B199">
         <v>0.11904761904761904</v>
@@ -8873,7 +8877,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B200">
         <v>0.12540894220283533</v>
@@ -8911,7 +8915,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B201">
         <v>9.5505617977528087E-2</v>
@@ -8949,7 +8953,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -8987,7 +8991,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B203">
         <v>0.2</v>
@@ -9025,7 +9029,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -9063,7 +9067,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B205">
         <v>0.2</v>
@@ -9101,7 +9105,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B206">
         <v>0.15987460815047022</v>
@@ -9139,7 +9143,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -9177,7 +9181,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B208">
         <v>0.1</v>
@@ -9215,7 +9219,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -9253,7 +9257,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -9291,7 +9295,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B211">
         <v>0.22222222222222221</v>
@@ -9329,7 +9333,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -9367,7 +9371,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B213">
         <v>0.14681892332789559</v>
@@ -9405,7 +9409,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B214">
         <v>0.14489571899012074</v>
@@ -9443,7 +9447,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B215">
         <v>0.18181818181818182</v>
@@ -9481,7 +9485,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B216">
         <v>0.17370892018779344</v>
@@ -9519,7 +9523,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -9557,7 +9561,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B218">
         <v>0.12230769230769231</v>
@@ -9595,7 +9599,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -9633,7 +9637,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -9671,7 +9675,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -9709,7 +9713,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B222">
         <v>0.10785953177257525</v>
@@ -9747,7 +9751,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B223">
         <v>0.12008281573498965</v>
@@ -9785,7 +9789,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -9823,7 +9827,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B225">
         <v>0.11796246648793565</v>
@@ -9861,7 +9865,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -9899,7 +9903,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -9937,7 +9941,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B228">
         <v>0.15</v>
@@ -9975,7 +9979,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B229">
         <v>0.11942446043165468</v>
@@ -10013,7 +10017,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B230">
         <v>0.14285714285714285</v>
@@ -10051,7 +10055,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B231">
         <v>0.11659192825112108</v>
@@ -10089,7 +10093,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -10127,7 +10131,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B233">
         <v>0.1875</v>
@@ -10165,7 +10169,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -10203,7 +10207,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -10241,7 +10245,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -10279,7 +10283,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B237">
         <v>0.11623931623931624</v>
@@ -10317,7 +10321,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B238">
         <v>0.33333333333333331</v>
@@ -10355,7 +10359,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -10393,7 +10397,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -10431,7 +10435,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B241">
         <v>0.13115224565934855</v>
@@ -10469,7 +10473,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -10507,7 +10511,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B243">
         <v>0.14893617021276595</v>
@@ -10545,7 +10549,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -10583,7 +10587,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B245">
         <v>0.10792580101180438</v>
@@ -10621,7 +10625,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -10659,7 +10663,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -10697,7 +10701,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -10735,7 +10739,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -10773,7 +10777,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -10811,7 +10815,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B251">
         <v>0.13761467889908258</v>
@@ -10849,7 +10853,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B252">
         <v>8.0996884735202487E-2</v>
@@ -10887,7 +10891,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B253">
         <v>0.12244897959183673</v>
@@ -10925,7 +10929,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B254">
         <v>4.0816326530612242E-2</v>
@@ -10963,7 +10967,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -11001,7 +11005,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -11039,7 +11043,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -11077,7 +11081,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -11115,7 +11119,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B259">
         <v>0.14285714285714285</v>
@@ -11153,7 +11157,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -11191,7 +11195,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B261">
         <v>0.14175257731958762</v>
@@ -11229,7 +11233,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B262">
         <v>0.15789473684210525</v>
@@ -11267,7 +11271,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B263">
         <v>5.2631578947368418E-2</v>
@@ -11305,7 +11309,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B264">
         <v>0.12828947368421054</v>
@@ -11343,7 +11347,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B265">
         <v>0.2</v>
@@ -11381,7 +11385,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B266">
         <v>0.12339331619537275</v>
@@ -11419,7 +11423,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -11457,7 +11461,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B268">
         <v>0.10953346855983773</v>
@@ -11495,7 +11499,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B269">
         <v>0.12137486573576799</v>
@@ -11533,7 +11537,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B270">
         <v>7.2463768115942032E-2</v>
@@ -11571,7 +11575,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B271">
         <v>0.13432835820895522</v>
@@ -11609,7 +11613,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -11647,7 +11651,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B273">
         <v>0.11320754716981132</v>
@@ -11685,7 +11689,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B274">
         <v>0.17123287671232876</v>
@@ -11723,7 +11727,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B275">
         <v>0.1152073732718894</v>
@@ -11761,7 +11765,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B276">
         <v>0.13737373737373737</v>
@@ -11799,7 +11803,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B277">
         <v>0.128099173553719</v>
@@ -11837,7 +11841,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -11875,7 +11879,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B279">
         <v>0.1111111111111111</v>
@@ -11913,7 +11917,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B280">
         <v>0.11492146596858639</v>
@@ -11951,7 +11955,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B281">
         <v>3.8461538461538464E-2</v>
@@ -11989,7 +11993,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -12027,7 +12031,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -12065,7 +12069,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B284">
         <v>0.13174946004319654</v>
@@ -12103,7 +12107,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B285">
         <v>0.20833333333333334</v>
@@ -12141,7 +12145,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -12179,7 +12183,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -12217,7 +12221,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -12255,7 +12259,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B289">
         <v>0.13565426170468187</v>
@@ -12293,7 +12297,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -12331,7 +12335,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -12369,7 +12373,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -12407,7 +12411,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B293">
         <v>0.32432432432432434</v>
@@ -12445,7 +12449,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B294">
         <v>0.12579281183932348</v>
@@ -12483,7 +12487,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B295">
         <v>0.26315789473684209</v>
@@ -12521,7 +12525,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -12559,7 +12563,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B297">
         <v>0.66666666666666663</v>
@@ -12597,7 +12601,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B298">
         <v>0.42857142857142855</v>
@@ -12635,7 +12639,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B299">
         <v>0.11864406779661017</v>
@@ -12673,7 +12677,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -12711,7 +12715,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B301">
         <v>0.12</v>
@@ -12749,7 +12753,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B302">
         <v>0.10736196319018405</v>
@@ -12787,7 +12791,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -12825,7 +12829,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B304">
         <v>0.125</v>
@@ -12863,7 +12867,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B305">
         <v>0.13829787234042554</v>
@@ -12901,7 +12905,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -12939,7 +12943,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B307">
         <v>0</v>
